--- a/GATEWAY/A1#111TSFNETXX/TSF_SRL/IATROS/4.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111TSFNETXX/TSF_SRL/IATROS/4.0.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea.buzzino\Documents\FSE\GATEWAY\Accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167BD1FC-6526-407E-81B9-5945FCB2FFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E280F43B-B625-422E-A5E7-68D2BCAD7948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="5415" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4645,10 +4645,10 @@
     <t>Il programma non permette di impostare un valore diverso da quelli definiti nel dizionario</t>
   </si>
   <si>
-    <t>Al medico compare un dialog box con il messaggio di errore e il tasto di conferma dell'avvenuta lettura del messaggio. La procedura viene interrotta.</t>
-  </si>
-  <si>
-    <t>Invio Patient Summary fallito. Il servizio non ha risposto nel tempo assegnato (TIMEOUT), si prega di riprovare più tardi.</t>
+    <t>Al medico compare una finestra con il messaggio di errore e il solo tasto OK. La procedura di invio viene interrotta. Il programma non permette l'invio di documenti non validati dal gateway.</t>
+  </si>
+  <si>
+    <t>Validazione Patient Summary fallita. Il servizio non ha risposto nel tempo assegnato (TIMEOUT), si prega di riprovare più tardi.</t>
   </si>
 </sst>
 </file>
@@ -7556,11 +7556,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="I45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P53" sqref="P53"/>
+      <selection pane="bottomRight" activeCell="N177" sqref="N177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9285,7 +9285,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="118.5" customHeight="1">
+    <row r="53" spans="1:20" ht="156.75" customHeight="1">
       <c r="A53" s="20">
         <v>46</v>
       </c>

--- a/GATEWAY/A1#111TSFNETXX/TSF_SRL/IATROS/4.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111TSFNETXX/TSF_SRL/IATROS/4.0.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea.buzzino\Documents\FSE\GATEWAY\Accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E280F43B-B625-422E-A5E7-68D2BCAD7948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E375E51-C8C2-4A2E-AB50-EA707D0DFC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="5415" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4645,10 +4645,10 @@
     <t>Il programma non permette di impostare un valore diverso da quelli definiti nel dizionario</t>
   </si>
   <si>
-    <t>Al medico compare una finestra con il messaggio di errore e il solo tasto OK. La procedura di invio viene interrotta. Il programma non permette l'invio di documenti non validati dal gateway.</t>
-  </si>
-  <si>
     <t>Validazione Patient Summary fallita. Il servizio non ha risposto nel tempo assegnato (TIMEOUT), si prega di riprovare più tardi.</t>
+  </si>
+  <si>
+    <t>Al medico compare una finestra con il messaggio di errore e il solo tasto OK. La procedura di invio viene interrotta. Il programma non permette l'invio di documenti non validati dal gateway. Il messaggio di errore viene riportato nei log di invio visualizzabili nella scheda del paziente.</t>
   </si>
 </sst>
 </file>
@@ -6446,7 +6446,7 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7547,7 +7547,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7556,11 +7556,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="F45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N177" sqref="N177"/>
+      <selection pane="bottomRight" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7573,7 +7573,7 @@
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="16" max="16" width="93.28515625" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="20" width="31.85546875" customWidth="1"/>
@@ -9316,13 +9316,13 @@
         <v>139</v>
       </c>
       <c r="N53" s="25" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="O53" s="25" t="s">
         <v>848</v>
       </c>
       <c r="P53" s="25" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="Q53" s="25"/>
       <c r="R53" s="26"/>
@@ -25329,8 +25329,8 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -27022,7 +27022,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28065,10 +28065,10 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>